--- a/biology/Zoologie/Exoprosopini/Exoprosopini.xlsx
+++ b/biology/Zoologie/Exoprosopini/Exoprosopini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Exoprosopini sont une tribu d'insectes diptères de la sous-famille des Anthracinae (famille des Bombyliidae).
 </t>
@@ -511,10 +523,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1913, l'entomologiste allemand Theodor Becker (1840-1928) crée une sous-famille des Bombyliidae qu'il nomme Exoprosopinae et qui se base sur le genre type Exoprosopa[1],[2].
-En 1999, Neal Evenhuis et David Greathead (d) rétrogradent cette sous-famille en tribu, sous le taxon Exoprosopini, tribu qu'ils rattachent à la sous-famille des Anthracinae, mais toujours dans la famille des Bombyliidae[3],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1913, l'entomologiste allemand Theodor Becker (1840-1928) crée une sous-famille des Bombyliidae qu'il nomme Exoprosopinae et qui se base sur le genre type Exoprosopa,.
+En 1999, Neal Evenhuis et David Greathead (d) rétrogradent cette sous-famille en tribu, sous le taxon Exoprosopini, tribu qu'ils rattachent à la sous-famille des Anthracinae, mais toujours dans la famille des Bombyliidae,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il y a vingt-deux genres[4] et environ 760 espèces décrites dans la tribu des Exoprosopini[5],[6],[7],[8]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il y a vingt-deux genres et environ 760 espèces décrites dans la tribu des Exoprosopini
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib en 2023, le nombre de genres dans la tribu des Exoprosopini est de vingt-deux[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib en 2023, le nombre de genres dans la tribu des Exoprosopini est de vingt-deux :
 Atrichochira Hesse, 1956
 Balaana Lambkin &amp; Yeates, 2003
 Collosoptera Hull, 1973
@@ -627,7 +645,9 @@
           <t>Espèces fossiles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon Paleobiology Database en 2023, deux collections de fossiles du Chattien et de l'espèce Exoprosopa romani sont référencées venant toutes les deux d'Aix-en-Provence, décrites par Nicolas Théobald et Fernand Meunier.
 </t>
